--- a/wolfTools/OutRank.xlsx
+++ b/wolfTools/OutRank.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
   <si>
     <t>JobNum</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Bad</t>
+  </si>
+  <si>
+    <t>一</t>
   </si>
   <si>
     <t>1007696</t>
@@ -426,13 +429,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,395 +460,398 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/wolfTools/OutRank.xlsx
+++ b/wolfTools/OutRank.xlsx
@@ -8,39 +8,112 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="WinRate" sheetId="2" r:id="rId2"/>
+    <sheet name="胜率数据" sheetId="2" r:id="rId2"/>
+    <sheet name="分数数据" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="31">
-  <si>
-    <t>JobNum</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Rounds</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>一</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="131">
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>总场数</t>
+  </si>
+  <si>
+    <t>总场数胜率</t>
+  </si>
+  <si>
+    <t>好人阵营场数</t>
+  </si>
+  <si>
+    <t>好人阵营胜率</t>
+  </si>
+  <si>
+    <t>狼人阵营场数</t>
+  </si>
+  <si>
+    <t>狼人阵营胜率</t>
+  </si>
+  <si>
+    <t>狼人场数</t>
+  </si>
+  <si>
+    <t>狼人胜率</t>
+  </si>
+  <si>
+    <t>狼王场数</t>
+  </si>
+  <si>
+    <t>狼王胜率</t>
+  </si>
+  <si>
+    <t>狼兄场数</t>
+  </si>
+  <si>
+    <t>狼兄胜率</t>
+  </si>
+  <si>
+    <t>狼弟场数</t>
+  </si>
+  <si>
+    <t>狼弟胜率</t>
+  </si>
+  <si>
+    <t>村民场数</t>
+  </si>
+  <si>
+    <t>村民胜率</t>
+  </si>
+  <si>
+    <t>预言家场数</t>
+  </si>
+  <si>
+    <t>预言家胜率</t>
+  </si>
+  <si>
+    <t>女巫场数</t>
+  </si>
+  <si>
+    <t>女巫胜率</t>
+  </si>
+  <si>
+    <t>猎人场数</t>
+  </si>
+  <si>
+    <t>猎人胜率</t>
+  </si>
+  <si>
+    <t>白痴场数</t>
+  </si>
+  <si>
+    <t>白痴胜率</t>
+  </si>
+  <si>
+    <t>守卫场数</t>
+  </si>
+  <si>
+    <t>守卫胜率</t>
+  </si>
+  <si>
+    <t>黑商商人场数</t>
+  </si>
+  <si>
+    <t>黑商商人胜率</t>
   </si>
   <si>
     <t>1007696</t>
   </si>
   <si>
+    <t>魏志男</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -59,55 +132,283 @@
     <t>50%</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1102102</t>
   </si>
   <si>
+    <t>刘恒</t>
+  </si>
+  <si>
     <t>1102208</t>
   </si>
   <si>
-    <t>0</t>
+    <t>刘军</t>
   </si>
   <si>
     <t>1102243</t>
   </si>
   <si>
+    <t>陈凡</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
     <t>1102326</t>
   </si>
   <si>
+    <t>李小秋</t>
+  </si>
+  <si>
     <t>1102374</t>
   </si>
   <si>
+    <t>雷珉</t>
+  </si>
+  <si>
     <t>66%</t>
   </si>
   <si>
     <t>1102379</t>
   </si>
   <si>
+    <t>吕譞</t>
+  </si>
+  <si>
     <t>1102522</t>
   </si>
   <si>
+    <t>张焌棐</t>
+  </si>
+  <si>
     <t>1102760</t>
   </si>
   <si>
+    <t>潘晓锋</t>
+  </si>
+  <si>
     <t>1102852</t>
   </si>
   <si>
+    <t>漆韵</t>
+  </si>
+  <si>
     <t>1102905</t>
   </si>
   <si>
+    <t>肖鹏</t>
+  </si>
+  <si>
     <t>1102912</t>
   </si>
   <si>
+    <t>黄健彬</t>
+  </si>
+  <si>
     <t>1103057</t>
   </si>
   <si>
+    <t>林融</t>
+  </si>
+  <si>
     <t>1103134</t>
   </si>
   <si>
+    <t>黄浩</t>
+  </si>
+  <si>
     <t>1106991</t>
+  </si>
+  <si>
+    <t>何翰霖</t>
+  </si>
+  <si>
+    <t>总分</t>
+  </si>
+  <si>
+    <t>平均分</t>
+  </si>
+  <si>
+    <t>好人阵营总分</t>
+  </si>
+  <si>
+    <t>好人阵营总场数</t>
+  </si>
+  <si>
+    <t>好人阵营平均分</t>
+  </si>
+  <si>
+    <t>狼人阵营总分</t>
+  </si>
+  <si>
+    <t>狼人阵营总场数</t>
+  </si>
+  <si>
+    <t>狼人阵营平均分</t>
+  </si>
+  <si>
+    <t>狼人总分</t>
+  </si>
+  <si>
+    <t>狼人总场数</t>
+  </si>
+  <si>
+    <t>狼人平均分</t>
+  </si>
+  <si>
+    <t>狼王总分</t>
+  </si>
+  <si>
+    <t>狼王总场数</t>
+  </si>
+  <si>
+    <t>狼王平均分</t>
+  </si>
+  <si>
+    <t>狼兄总分</t>
+  </si>
+  <si>
+    <t>狼兄总场数</t>
+  </si>
+  <si>
+    <t>狼兄平均分</t>
+  </si>
+  <si>
+    <t>狼弟总分</t>
+  </si>
+  <si>
+    <t>狼弟总场数</t>
+  </si>
+  <si>
+    <t>狼弟平均分</t>
+  </si>
+  <si>
+    <t>村民总分</t>
+  </si>
+  <si>
+    <t>村民总场数</t>
+  </si>
+  <si>
+    <t>村民平均分</t>
+  </si>
+  <si>
+    <t>预言家总分</t>
+  </si>
+  <si>
+    <t>预言家总场数</t>
+  </si>
+  <si>
+    <t>预言家平均分</t>
+  </si>
+  <si>
+    <t>女巫总分</t>
+  </si>
+  <si>
+    <t>女巫总场数</t>
+  </si>
+  <si>
+    <t>女巫平均分</t>
+  </si>
+  <si>
+    <t>猎人总分</t>
+  </si>
+  <si>
+    <t>猎人总场数</t>
+  </si>
+  <si>
+    <t>猎人平均分</t>
+  </si>
+  <si>
+    <t>白痴总分</t>
+  </si>
+  <si>
+    <t>白痴总场数</t>
+  </si>
+  <si>
+    <t>白痴平均分</t>
+  </si>
+  <si>
+    <t>守卫总分</t>
+  </si>
+  <si>
+    <t>守卫总场数</t>
+  </si>
+  <si>
+    <t>守卫平均分</t>
+  </si>
+  <si>
+    <t>黑商商人总分</t>
+  </si>
+  <si>
+    <t>黑商商人总场数</t>
+  </si>
+  <si>
+    <t>黑商商人平均分</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4.67</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -429,13 +730,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,406 +753,3616 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s">
+        <v>35</v>
+      </c>
+      <c r="W16" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AR16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:44">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" t="s">
+        <v>86</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>120</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s">
+        <v>38</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s">
+        <v>38</v>
+      </c>
+      <c r="U13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s">
+        <v>34</v>
+      </c>
+      <c r="W13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>38</v>
+      </c>
+      <c r="R14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s">
+        <v>38</v>
+      </c>
+      <c r="X14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" t="s">
+        <v>38</v>
+      </c>
+      <c r="X15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/wolfTools/OutRank.xlsx
+++ b/wolfTools/OutRank.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="163">
   <si>
     <t>工号</t>
   </si>
@@ -102,10 +102,10 @@
     <t>守卫胜率</t>
   </si>
   <si>
-    <t>黑商商人场数</t>
-  </si>
-  <si>
-    <t>黑商商人胜率</t>
+    <t>黑市商人场数</t>
+  </si>
+  <si>
+    <t>黑市商人胜率</t>
   </si>
   <si>
     <t>1007696</t>
@@ -114,46 +114,55 @@
     <t>魏志男</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1102102</t>
+  </si>
+  <si>
+    <t>刘恒</t>
+  </si>
+  <si>
+    <t>1102208</t>
+  </si>
+  <si>
+    <t>刘军</t>
+  </si>
+  <si>
     <t>33%</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1102102</t>
-  </si>
-  <si>
-    <t>刘恒</t>
-  </si>
-  <si>
-    <t>1102208</t>
-  </si>
-  <si>
-    <t>刘军</t>
-  </si>
-  <si>
     <t>1102243</t>
   </si>
   <si>
     <t>陈凡</t>
   </si>
   <si>
-    <t>100%</t>
+    <t>4</t>
   </si>
   <si>
     <t>1102326</t>
@@ -162,15 +171,18 @@
     <t>李小秋</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
     <t>1102374</t>
   </si>
   <si>
     <t>雷珉</t>
   </si>
   <si>
-    <t>66%</t>
-  </si>
-  <si>
     <t>1102379</t>
   </si>
   <si>
@@ -183,6 +195,12 @@
     <t>张焌棐</t>
   </si>
   <si>
+    <t>1102554</t>
+  </si>
+  <si>
+    <t>叶诗瑶</t>
+  </si>
+  <si>
     <t>1102760</t>
   </si>
   <si>
@@ -207,6 +225,12 @@
     <t>黄健彬</t>
   </si>
   <si>
+    <t>1102929</t>
+  </si>
+  <si>
+    <t>刘鑫</t>
+  </si>
+  <si>
     <t>1103057</t>
   </si>
   <si>
@@ -219,12 +243,24 @@
     <t>黄浩</t>
   </si>
   <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>1103136</t>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
     <t>1106991</t>
   </si>
   <si>
     <t>何翰霖</t>
   </si>
   <si>
+    <t>60%</t>
+  </si>
+  <si>
     <t>总分</t>
   </si>
   <si>
@@ -339,51 +375,90 @@
     <t>守卫平均分</t>
   </si>
   <si>
-    <t>黑商商人总分</t>
-  </si>
-  <si>
-    <t>黑商商人总场数</t>
-  </si>
-  <si>
-    <t>黑商商人平均分</t>
+    <t>黑市商人总分</t>
+  </si>
+  <si>
+    <t>黑市商人总场数</t>
+  </si>
+  <si>
+    <t>黑市商人平均分</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>4.83</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>5.67</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>3.00</t>
   </si>
   <si>
+    <t>6.00</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>2.50</t>
   </si>
   <si>
     <t>1.00</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>5.00</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>1.67</t>
+  </si>
+  <si>
     <t>9.00</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>4.67</t>
   </si>
   <si>
@@ -396,19 +471,40 @@
     <t>7.00</t>
   </si>
   <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4.00</t>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2.75</t>
   </si>
   <si>
     <t>2.33</t>
   </si>
   <si>
-    <t>10</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>4.20</t>
   </si>
 </sst>
 </file>
@@ -730,7 +826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD16"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,1367 +941,1643 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
       <c r="Y2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>36</v>
       </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="AD5" t="s">
         <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" t="s">
-        <v>35</v>
-      </c>
-      <c r="W5" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q6" t="s">
         <v>34</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
         <v>38</v>
       </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" t="s">
+      <c r="S8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="T8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U8" t="s">
-        <v>34</v>
-      </c>
       <c r="V8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
         <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" t="s">
-        <v>45</v>
-      </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
+      <c r="R11" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="s">
         <v>38</v>
       </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s">
-        <v>35</v>
-      </c>
-      <c r="W11" t="s">
-        <v>34</v>
-      </c>
-      <c r="X11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>35</v>
-      </c>
       <c r="AA11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" t="s">
-        <v>38</v>
-      </c>
-      <c r="T12" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" t="s">
-        <v>35</v>
-      </c>
-      <c r="W12" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12" t="s">
-        <v>35</v>
-      </c>
       <c r="Y12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
         <v>38</v>
       </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="U14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="W14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="X14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
         <v>38</v>
       </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="U15" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" t="s">
         <v>38</v>
       </c>
-      <c r="J15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" t="s">
-        <v>38</v>
-      </c>
-      <c r="T15" t="s">
-        <v>35</v>
-      </c>
-      <c r="U15" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" t="s">
-        <v>38</v>
-      </c>
-      <c r="X15" t="s">
-        <v>35</v>
-      </c>
       <c r="Y15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" t="s">
+        <v>40</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="J16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s">
         <v>38</v>
       </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="W18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
         <v>38</v>
       </c>
-      <c r="N16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
         <v>38</v>
       </c>
-      <c r="P16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" t="s">
         <v>34</v>
       </c>
-      <c r="R16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16" t="s">
-        <v>35</v>
-      </c>
-      <c r="U16" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16" t="s">
-        <v>35</v>
-      </c>
-      <c r="W16" t="s">
-        <v>38</v>
-      </c>
-      <c r="X16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>35</v>
+      <c r="R19" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +2587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR16"/>
+  <dimension ref="A1:AR19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2229,130 +2601,130 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="L1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="P1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Q1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="R1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="S1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="T1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="V1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="W1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="X1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="Y1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="Z1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="AA1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AB1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="AC1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AD1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AE1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AF1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AG1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AH1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="AI1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="AJ1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="AK1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AL1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="AM1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="AN1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AO1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="AP1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AQ1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AR1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -2363,2006 +2735,2408 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI2" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AJ2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AA3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AO3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AP3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="Y4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="AA4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AD4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP5" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="AQ5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AR5" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="Y6" t="s">
         <v>34</v>
       </c>
       <c r="Z6" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="AA6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W7" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" t="s">
-        <v>114</v>
-      </c>
       <c r="Y7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AA7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="AM7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="AA8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AD8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AF8" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="AG8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
         <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s">
         <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="Y9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="AA9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AI9" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="AA10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R11" t="s">
-        <v>38</v>
-      </c>
-      <c r="S11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>38</v>
-      </c>
       <c r="Z11" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AA11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG11" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AI11" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="AJ11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AK11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AL11" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="AM11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>129</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="T12" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Z12" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="AA12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AH12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI12" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AJ12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="R13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="U13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="X13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AE13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AF13" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="AG13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AJ13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="X14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AD14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AE14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="AJ14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Z15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC15" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="AD15" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="AE15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AF15" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="AG15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AH15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI15" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="AJ15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AL15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AO15" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="AP15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AQ15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AR15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Y16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="AA16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AD16" t="s">
         <v>34</v>
       </c>
       <c r="AE16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
+        <v>125</v>
+      </c>
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" t="s">
+        <v>39</v>
+      </c>
+      <c r="V17" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA17" t="s">
         <v>34</v>
       </c>
-      <c r="AF16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>38</v>
+      <c r="AB17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" t="s">
+        <v>39</v>
+      </c>
+      <c r="S18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/wolfTools/OutRank.xlsx
+++ b/wolfTools/OutRank.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="胜率数据" sheetId="2" r:id="rId2"/>
     <sheet name="分数数据" sheetId="3" r:id="rId3"/>
+    <sheet name="奖励排行版" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="172">
   <si>
     <t>工号</t>
   </si>
@@ -384,127 +385,154 @@
     <t>黑市商人平均分</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>4.83</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>5.67</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>6.25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4.67</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>6.00</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
+    <t>2.40</t>
+  </si>
+  <si>
     <t>4.00</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>5.67</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.60</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>5.33</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2.80</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>4.67</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>0.67</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>3.25</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>4.20</t>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          平均分排行榜          </t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>总阵营总场数</t>
+  </si>
+  <si>
+    <t>总阵营平均分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          狼人阵营总分排行榜          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          村民总分排行榜          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          女巫总分排行榜          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          猎人总分排行榜          </t>
   </si>
 </sst>
 </file>
@@ -2825,13 +2853,13 @@
         <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="AH2" t="s">
         <v>37</v>
       </c>
       <c r="AI2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AJ2" t="s">
         <v>39</v>
@@ -2875,7 +2903,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2884,7 +2912,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
@@ -2893,7 +2921,7 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L3" t="s">
         <v>39</v>
@@ -2902,7 +2930,7 @@
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -2938,7 +2966,7 @@
         <v>37</v>
       </c>
       <c r="Z3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA3" t="s">
         <v>39</v>
@@ -2983,7 +3011,7 @@
         <v>37</v>
       </c>
       <c r="AO3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AP3" t="s">
         <v>39</v>
@@ -3009,7 +3037,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -3018,16 +3046,16 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
         <v>135</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>134</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
@@ -3072,7 +3100,7 @@
         <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA4" t="s">
         <v>37</v>
@@ -3081,7 +3109,7 @@
         <v>37</v>
       </c>
       <c r="AC4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AD4" t="s">
         <v>39</v>
@@ -3137,22 +3165,22 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I5" t="s">
         <v>130</v>
@@ -3200,13 +3228,13 @@
         <v>39</v>
       </c>
       <c r="X5" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="Y5" t="s">
         <v>37</v>
       </c>
       <c r="Z5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA5" t="s">
         <v>39</v>
@@ -3260,7 +3288,7 @@
         <v>35</v>
       </c>
       <c r="AR5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -3271,22 +3299,22 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
         <v>128</v>
@@ -3304,7 +3332,7 @@
         <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
@@ -3322,7 +3350,7 @@
         <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U6" t="s">
         <v>39</v>
@@ -3334,13 +3362,13 @@
         <v>39</v>
       </c>
       <c r="X6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s">
         <v>34</v>
       </c>
       <c r="Z6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AA6" t="s">
         <v>39</v>
@@ -3405,40 +3433,40 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
@@ -3474,7 +3502,7 @@
         <v>37</v>
       </c>
       <c r="Z7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="AA7" t="s">
         <v>39</v>
@@ -3510,7 +3538,7 @@
         <v>37</v>
       </c>
       <c r="AL7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM7" t="s">
         <v>39</v>
@@ -3539,22 +3567,22 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
@@ -3563,7 +3591,7 @@
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L8" t="s">
         <v>39</v>
@@ -3572,7 +3600,7 @@
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
@@ -3617,7 +3645,7 @@
         <v>35</v>
       </c>
       <c r="AC8" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AD8" t="s">
         <v>37</v>
@@ -3626,7 +3654,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG8" t="s">
         <v>39</v>
@@ -3673,7 +3701,7 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -3688,7 +3716,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
         <v>126</v>
@@ -3742,7 +3770,7 @@
         <v>35</v>
       </c>
       <c r="Z9" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="AA9" t="s">
         <v>39</v>
@@ -3769,7 +3797,7 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s">
         <v>39</v>
@@ -3813,7 +3841,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
@@ -3822,7 +3850,7 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -3831,7 +3859,7 @@
         <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
@@ -3840,7 +3868,7 @@
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
@@ -3867,7 +3895,7 @@
         <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
         <v>35</v>
@@ -3876,7 +3904,7 @@
         <v>37</v>
       </c>
       <c r="Z10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA10" t="s">
         <v>39</v>
@@ -3947,16 +3975,16 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
         <v>37</v>
@@ -3965,7 +3993,7 @@
         <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s">
         <v>39</v>
@@ -3974,7 +4002,7 @@
         <v>37</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
@@ -4010,7 +4038,7 @@
         <v>34</v>
       </c>
       <c r="Z11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA11" t="s">
         <v>39</v>
@@ -4040,13 +4068,13 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="s">
         <v>37</v>
       </c>
       <c r="AL11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s">
         <v>39</v>
@@ -4081,7 +4109,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -4090,7 +4118,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
         <v>39</v>
@@ -4099,7 +4127,7 @@
         <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
         <v>39</v>
@@ -4171,7 +4199,7 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s">
         <v>39</v>
@@ -4209,13 +4237,13 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -4224,16 +4252,16 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
         <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
         <v>39</v>
@@ -4245,13 +4273,13 @@
         <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="P13" t="s">
         <v>37</v>
       </c>
       <c r="Q13" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
@@ -4260,7 +4288,7 @@
         <v>37</v>
       </c>
       <c r="T13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U13" t="s">
         <v>39</v>
@@ -4278,7 +4306,7 @@
         <v>37</v>
       </c>
       <c r="Z13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA13" t="s">
         <v>39</v>
@@ -4358,25 +4386,25 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
         <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
@@ -4403,7 +4431,7 @@
         <v>37</v>
       </c>
       <c r="W14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X14" t="s">
         <v>39</v>
@@ -4430,7 +4458,7 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG14" t="s">
         <v>39</v>
@@ -4483,7 +4511,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
         <v>141</v>
@@ -4492,7 +4520,7 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
@@ -4501,7 +4529,7 @@
         <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
         <v>39</v>
@@ -4555,7 +4583,7 @@
         <v>37</v>
       </c>
       <c r="AC15" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="AD15" t="s">
         <v>39</v>
@@ -4573,7 +4601,7 @@
         <v>37</v>
       </c>
       <c r="AI15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="AJ15" t="s">
         <v>39</v>
@@ -4591,7 +4619,7 @@
         <v>37</v>
       </c>
       <c r="AO15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AP15" t="s">
         <v>39</v>
@@ -4611,13 +4639,13 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -4626,25 +4654,25 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
         <v>35</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
         <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
         <v>39</v>
@@ -4689,7 +4717,7 @@
         <v>37</v>
       </c>
       <c r="AC16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AD16" t="s">
         <v>34</v>
@@ -4707,7 +4735,7 @@
         <v>37</v>
       </c>
       <c r="AI16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AJ16" t="s">
         <v>39</v>
@@ -4745,13 +4773,13 @@
         <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
         <v>130</v>
@@ -4760,7 +4788,7 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="I17" t="s">
         <v>130</v>
@@ -4769,7 +4797,7 @@
         <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
         <v>130</v>
@@ -4778,7 +4806,7 @@
         <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s">
         <v>39</v>
@@ -4832,7 +4860,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="AG17" t="s">
         <v>39</v>
@@ -4879,22 +4907,22 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
@@ -4903,7 +4931,7 @@
         <v>39</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s">
         <v>39</v>
@@ -4942,13 +4970,13 @@
         <v>39</v>
       </c>
       <c r="X18" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="Y18" t="s">
         <v>35</v>
       </c>
       <c r="Z18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA18" t="s">
         <v>39</v>
@@ -4960,13 +4988,13 @@
         <v>39</v>
       </c>
       <c r="AD18" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="AE18" t="s">
         <v>37</v>
       </c>
       <c r="AF18" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AG18" t="s">
         <v>39</v>
@@ -5013,13 +5041,13 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -5028,7 +5056,7 @@
         <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
         <v>128</v>
@@ -5037,7 +5065,7 @@
         <v>37</v>
       </c>
       <c r="K19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s">
         <v>128</v>
@@ -5046,7 +5074,7 @@
         <v>37</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
         <v>39</v>
@@ -5076,13 +5104,13 @@
         <v>39</v>
       </c>
       <c r="X19" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="Y19" t="s">
         <v>34</v>
       </c>
       <c r="Z19" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="AA19" t="s">
         <v>39</v>
@@ -5109,33 +5137,1686 @@
         <v>37</v>
       </c>
       <c r="AI19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
         <v>135</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR19" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" t="s">
+        <v>39</v>
+      </c>
+      <c r="E82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" t="s">
+        <v>37</v>
+      </c>
+      <c r="E91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>78</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" t="s">
+        <v>37</v>
+      </c>
+      <c r="E94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>37</v>
+      </c>
+      <c r="E95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>51</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" t="s">
+        <v>60</v>
+      </c>
+      <c r="D103" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D105" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="s">
+        <v>74</v>
+      </c>
+      <c r="D107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" t="s">
         <v>39</v>
       </c>
     </row>

--- a/wolfTools/OutRank.xlsx
+++ b/wolfTools/OutRank.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="182">
   <si>
     <t>工号</t>
   </si>
@@ -163,45 +163,66 @@
     <t>陈凡</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>75%</t>
+  </si>
+  <si>
     <t>1102326</t>
   </si>
   <si>
     <t>李小秋</t>
   </si>
   <si>
-    <t>5</t>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>1102374</t>
+  </si>
+  <si>
+    <t>雷珉</t>
+  </si>
+  <si>
+    <t>1102379</t>
+  </si>
+  <si>
+    <t>吕譞</t>
   </si>
   <si>
     <t>40%</t>
   </si>
   <si>
-    <t>1102374</t>
-  </si>
-  <si>
-    <t>雷珉</t>
-  </si>
-  <si>
-    <t>1102379</t>
-  </si>
-  <si>
-    <t>吕譞</t>
-  </si>
-  <si>
     <t>1102522</t>
   </si>
   <si>
     <t>张焌棐</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
     <t>1102554</t>
   </si>
   <si>
     <t>叶诗瑶</t>
   </si>
   <si>
+    <t>1102680</t>
+  </si>
+  <si>
+    <t>艾蓉芳</t>
+  </si>
+  <si>
     <t>1102760</t>
   </si>
   <si>
@@ -238,15 +259,18 @@
     <t>林融</t>
   </si>
   <si>
+    <t>1103120</t>
+  </si>
+  <si>
+    <t>娄晓鹏</t>
+  </si>
+  <si>
     <t>1103134</t>
   </si>
   <si>
     <t>黄浩</t>
   </si>
   <si>
-    <t>75%</t>
-  </si>
-  <si>
     <t>1103136</t>
   </si>
   <si>
@@ -259,9 +283,6 @@
     <t>何翰霖</t>
   </si>
   <si>
-    <t>60%</t>
-  </si>
-  <si>
     <t>总分</t>
   </si>
   <si>
@@ -418,9 +439,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
@@ -436,91 +454,103 @@
     <t>1.00</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>5.20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
     <t>6.25</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>9.00</t>
+    <t>2.17</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>2.60</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>5.75</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          平均分排行榜          </t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>总阵营总场数</t>
+  </si>
+  <si>
+    <t>总阵营平均分</t>
   </si>
   <si>
     <t>14</t>
-  </si>
-  <si>
-    <t>4.67</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>2.17</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>2.60</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          平均分排行榜          </t>
-  </si>
-  <si>
-    <t>排名</t>
-  </si>
-  <si>
-    <t>总阵营总场数</t>
-  </si>
-  <si>
-    <t>总阵营平均分</t>
   </si>
   <si>
     <t xml:space="preserve">          狼人阵营总分排行榜          </t>
@@ -854,7 +884,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1239,13 +1269,13 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>37</v>
@@ -1290,7 +1320,7 @@
         <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s">
         <v>40</v>
@@ -1322,22 +1352,22 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -1370,10 +1400,10 @@
         <v>40</v>
       </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="S6" t="s">
         <v>39</v>
@@ -1414,22 +1444,22 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
@@ -1480,7 +1510,7 @@
         <v>40</v>
       </c>
       <c r="W7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s">
         <v>40</v>
@@ -1506,10 +1536,10 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -1518,10 +1548,10 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
@@ -1598,16 +1628,16 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -1616,16 +1646,16 @@
         <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
@@ -1690,19 +1720,19 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
@@ -1738,7 +1768,7 @@
         <v>40</v>
       </c>
       <c r="Q10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
         <v>40</v>
@@ -1782,31 +1812,31 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
@@ -1830,10 +1860,10 @@
         <v>40</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S11" t="s">
         <v>39</v>
@@ -1854,10 +1884,10 @@
         <v>40</v>
       </c>
       <c r="Y11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA11" t="s">
         <v>39</v>
@@ -1874,82 +1904,82 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s">
         <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" t="s">
-        <v>40</v>
-      </c>
-      <c r="W12" t="s">
-        <v>37</v>
-      </c>
-      <c r="X12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>40</v>
       </c>
       <c r="AA12" t="s">
         <v>39</v>
@@ -1966,28 +1996,28 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
@@ -1996,46 +2026,46 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>40</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s">
         <v>38</v>
-      </c>
-      <c r="M13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" t="s">
-        <v>40</v>
-      </c>
-      <c r="S13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" t="s">
-        <v>39</v>
-      </c>
-      <c r="X13" t="s">
-        <v>40</v>
       </c>
       <c r="Y13" t="s">
         <v>39</v>
@@ -2058,28 +2088,28 @@
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
         <v>37</v>
@@ -2088,25 +2118,25 @@
         <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N14" t="s">
         <v>40</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
         <v>40</v>
       </c>
       <c r="Q14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R14" t="s">
         <v>40</v>
@@ -2118,7 +2148,7 @@
         <v>40</v>
       </c>
       <c r="U14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V14" t="s">
         <v>40</v>
@@ -2150,34 +2180,34 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
@@ -2192,7 +2222,7 @@
         <v>40</v>
       </c>
       <c r="O15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
         <v>40</v>
@@ -2204,31 +2234,31 @@
         <v>40</v>
       </c>
       <c r="S15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s">
         <v>40</v>
       </c>
       <c r="W15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="s">
         <v>40</v>
       </c>
       <c r="AA15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB15" t="s">
         <v>40</v>
@@ -2242,34 +2272,34 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
@@ -2299,20 +2329,20 @@
         <v>37</v>
       </c>
       <c r="T16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" t="s">
         <v>38</v>
       </c>
-      <c r="W16" t="s">
-        <v>37</v>
-      </c>
-      <c r="X16" t="s">
-        <v>40</v>
-      </c>
       <c r="Y16" t="s">
         <v>39</v>
       </c>
@@ -2320,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="s">
         <v>40</v>
@@ -2334,22 +2364,22 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -2391,7 +2421,7 @@
         <v>37</v>
       </c>
       <c r="T17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="U17" t="s">
         <v>37</v>
@@ -2400,7 +2430,7 @@
         <v>38</v>
       </c>
       <c r="W17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s">
         <v>40</v>
@@ -2426,22 +2456,22 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -2474,10 +2504,10 @@
         <v>40</v>
       </c>
       <c r="Q18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="S18" t="s">
         <v>39</v>
@@ -2486,10 +2516,10 @@
         <v>40</v>
       </c>
       <c r="U18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W18" t="s">
         <v>39</v>
@@ -2518,93 +2548,277 @@
     </row>
     <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s">
         <v>38</v>
       </c>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="U19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
         <v>38</v>
       </c>
-      <c r="K19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="W19" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
         <v>34</v>
       </c>
-      <c r="R19" t="s">
+      <c r="F20" t="s">
         <v>33</v>
       </c>
-      <c r="S19" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" t="s">
-        <v>40</v>
-      </c>
-      <c r="W19" t="s">
-        <v>37</v>
-      </c>
-      <c r="X19" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" t="s">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" t="s">
+        <v>40</v>
+      </c>
+      <c r="U21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" t="s">
+        <v>40</v>
+      </c>
+      <c r="W21" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2615,7 +2829,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR19"/>
+  <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2629,130 +2843,130 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="R1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="S1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="T1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="U1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="V1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="W1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="Z1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AA1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AB1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AC1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="AD1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AE1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AF1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AG1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AH1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="AI1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AJ1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="AK1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AL1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AM1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AN1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AO1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AP1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AR1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -2763,49 +2977,49 @@
         <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
         <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M2" t="s">
         <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="P2" t="s">
         <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="R2" t="s">
         <v>39</v>
@@ -2832,7 +3046,7 @@
         <v>35</v>
       </c>
       <c r="Z2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AA2" t="s">
         <v>39</v>
@@ -2853,13 +3067,13 @@
         <v>39</v>
       </c>
       <c r="AG2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="AH2" t="s">
         <v>37</v>
       </c>
       <c r="AI2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="s">
         <v>39</v>
@@ -2903,7 +3117,7 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -2912,7 +3126,7 @@
         <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
@@ -2921,7 +3135,7 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L3" t="s">
         <v>39</v>
@@ -2930,7 +3144,7 @@
         <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O3" t="s">
         <v>39</v>
@@ -2966,7 +3180,7 @@
         <v>37</v>
       </c>
       <c r="Z3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AA3" t="s">
         <v>39</v>
@@ -3011,7 +3225,7 @@
         <v>37</v>
       </c>
       <c r="AO3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AP3" t="s">
         <v>39</v>
@@ -3037,7 +3251,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -3046,7 +3260,7 @@
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
@@ -3055,7 +3269,7 @@
         <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
@@ -3094,13 +3308,13 @@
         <v>39</v>
       </c>
       <c r="X4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y4" t="s">
         <v>35</v>
       </c>
       <c r="Z4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AA4" t="s">
         <v>37</v>
@@ -3109,7 +3323,7 @@
         <v>37</v>
       </c>
       <c r="AC4" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AD4" t="s">
         <v>39</v>
@@ -3165,174 +3379,174 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
       </c>
       <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" t="s">
         <v>140</v>
       </c>
-      <c r="F5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="AA5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR5" t="s">
         <v>130</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>131</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
         <v>136</v>
       </c>
-      <c r="I6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>129</v>
-      </c>
       <c r="L6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M6" t="s">
         <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
@@ -3350,7 +3564,7 @@
         <v>37</v>
       </c>
       <c r="T6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="U6" t="s">
         <v>39</v>
@@ -3365,10 +3579,10 @@
         <v>32</v>
       </c>
       <c r="Y6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Z6" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="s">
         <v>39</v>
@@ -3427,46 +3641,46 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
       </c>
       <c r="N7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
@@ -3502,7 +3716,7 @@
         <v>37</v>
       </c>
       <c r="Z7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AA7" t="s">
         <v>39</v>
@@ -3523,13 +3737,13 @@
         <v>39</v>
       </c>
       <c r="AG7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AI7" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="AJ7" t="s">
         <v>37</v>
@@ -3538,7 +3752,7 @@
         <v>37</v>
       </c>
       <c r="AL7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AM7" t="s">
         <v>39</v>
@@ -3561,28 +3775,28 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
@@ -3591,7 +3805,7 @@
         <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L8" t="s">
         <v>39</v>
@@ -3600,7 +3814,7 @@
         <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
@@ -3636,16 +3850,16 @@
         <v>37</v>
       </c>
       <c r="Z8" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AA8" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AB8" t="s">
         <v>35</v>
       </c>
       <c r="AC8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AD8" t="s">
         <v>37</v>
@@ -3654,7 +3868,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AG8" t="s">
         <v>39</v>
@@ -3695,46 +3909,46 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="N9" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
@@ -3764,40 +3978,40 @@
         <v>39</v>
       </c>
       <c r="X9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI9" t="s">
         <v>141</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>135</v>
       </c>
       <c r="AJ9" t="s">
         <v>39</v>
@@ -3829,28 +4043,28 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
@@ -3859,7 +4073,7 @@
         <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
@@ -3868,7 +4082,7 @@
         <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
@@ -3895,16 +4109,16 @@
         <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="X10" t="s">
         <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AA10" t="s">
         <v>39</v>
@@ -3963,46 +4177,46 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
         <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
@@ -4032,13 +4246,13 @@
         <v>39</v>
       </c>
       <c r="X11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Y11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AA11" t="s">
         <v>39</v>
@@ -4068,13 +4282,13 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="AK11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AL11" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="AM11" t="s">
         <v>39</v>
@@ -4097,82 +4311,82 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>39</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
-        <v>39</v>
-      </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>39</v>
-      </c>
-      <c r="R12" t="s">
-        <v>39</v>
-      </c>
-      <c r="S12" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" t="s">
-        <v>39</v>
-      </c>
-      <c r="U12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W12" t="s">
-        <v>39</v>
-      </c>
-      <c r="X12" t="s">
-        <v>39</v>
-      </c>
       <c r="Y12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="AA12" t="s">
         <v>39</v>
@@ -4193,22 +4407,22 @@
         <v>39</v>
       </c>
       <c r="AG12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>32</v>
       </c>
-      <c r="AH12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>39</v>
-      </c>
       <c r="AK12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AL12" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s">
         <v>39</v>
@@ -4231,37 +4445,37 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
         <v>39</v>
@@ -4273,22 +4487,22 @@
         <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q13" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="U13" t="s">
         <v>39</v>
@@ -4306,7 +4520,7 @@
         <v>37</v>
       </c>
       <c r="Z13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AA13" t="s">
         <v>39</v>
@@ -4327,13 +4541,13 @@
         <v>39</v>
       </c>
       <c r="AG13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="AH13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AI13" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="AJ13" t="s">
         <v>39</v>
@@ -4365,82 +4579,82 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s">
         <v>37</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q14" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="R14" t="s">
         <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="U14" t="s">
         <v>39</v>
       </c>
       <c r="V14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W14" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="X14" t="s">
         <v>39</v>
       </c>
       <c r="Y14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s">
         <v>39</v>
@@ -4452,13 +4666,13 @@
         <v>39</v>
       </c>
       <c r="AD14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AE14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF14" t="s">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="AG14" t="s">
         <v>39</v>
@@ -4499,127 +4713,127 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>39</v>
+      </c>
+      <c r="R15" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" t="s">
+        <v>39</v>
+      </c>
+      <c r="V15" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" t="s">
         <v>141</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="X15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL15" t="s">
         <v>141</v>
       </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" t="s">
-        <v>39</v>
-      </c>
-      <c r="T15" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" t="s">
-        <v>39</v>
-      </c>
-      <c r="V15" t="s">
-        <v>39</v>
-      </c>
-      <c r="W15" t="s">
-        <v>39</v>
-      </c>
-      <c r="X15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>39</v>
-      </c>
       <c r="AM15" t="s">
         <v>39</v>
       </c>
       <c r="AN15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AO15" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="AP15" t="s">
         <v>39</v>
@@ -4633,46 +4847,46 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="O16" t="s">
         <v>39</v>
@@ -4711,31 +4925,31 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="s">
         <v>37</v>
       </c>
       <c r="AC16" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="AD16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AE16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF16" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="AG16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AH16" t="s">
         <v>37</v>
       </c>
       <c r="AI16" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="AJ16" t="s">
         <v>39</v>
@@ -4750,10 +4964,10 @@
         <v>39</v>
       </c>
       <c r="AN16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AO16" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="AP16" t="s">
         <v>39</v>
@@ -4767,46 +4981,46 @@
     </row>
     <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="J17" t="s">
         <v>35</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
         <v>35</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
         <v>39</v>
@@ -4845,31 +5059,31 @@
         <v>39</v>
       </c>
       <c r="AA17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD17" t="s">
         <v>34</v>
       </c>
-      <c r="AB17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>51</v>
-      </c>
       <c r="AE17" t="s">
         <v>37</v>
       </c>
       <c r="AF17" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="AG17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AH17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="AJ17" t="s">
         <v>39</v>
@@ -4901,28 +5115,28 @@
     </row>
     <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
@@ -4931,7 +5145,7 @@
         <v>39</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
         <v>39</v>
@@ -4970,13 +5184,13 @@
         <v>39</v>
       </c>
       <c r="X18" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="Y18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="AA18" t="s">
         <v>39</v>
@@ -4988,13 +5202,13 @@
         <v>39</v>
       </c>
       <c r="AD18" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="AE18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AF18" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="AG18" t="s">
         <v>39</v>
@@ -5035,135 +5249,403 @@
     </row>
     <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R19" t="s">
+        <v>39</v>
+      </c>
+      <c r="S19" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD19" t="s">
         <v>48</v>
       </c>
-      <c r="H19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I19" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" t="s">
-        <v>128</v>
-      </c>
-      <c r="M19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" t="s">
-        <v>143</v>
-      </c>
-      <c r="O19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" t="s">
-        <v>39</v>
-      </c>
-      <c r="S19" t="s">
-        <v>39</v>
-      </c>
-      <c r="T19" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" t="s">
-        <v>39</v>
-      </c>
-      <c r="X19" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="AE19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-      <c r="Z19" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR19" t="s">
+      <c r="H20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" t="s">
+        <v>138</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+      <c r="S20" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>39</v>
+      </c>
+      <c r="R21" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" t="s">
+        <v>39</v>
+      </c>
+      <c r="V21" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5174,7 +5656,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5182,12 +5664,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -5196,10 +5678,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5207,16 +5689,16 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5224,16 +5706,16 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5250,7 +5732,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5258,191 +5740,191 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -5454,46 +5936,46 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -5505,80 +5987,80 @@
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5586,33 +6068,33 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5620,33 +6102,33 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
         <v>73</v>
       </c>
-      <c r="C30" t="s">
-        <v>74</v>
-      </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5654,16 +6136,16 @@
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5671,16 +6153,16 @@
         <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5688,33 +6170,33 @@
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
         <v>62</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5722,16 +6204,16 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5739,47 +6221,47 @@
         <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
         <v>39</v>
@@ -5787,13 +6269,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D40" t="s">
         <v>39</v>
@@ -5804,16 +6286,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
@@ -5821,310 +6303,310 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
         <v>62</v>
-      </c>
-      <c r="D54" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
         <v>32</v>
-      </c>
-      <c r="B55" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
         <v>37</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
         <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
         <v>39</v>
@@ -6132,16 +6614,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
         <v>39</v>
@@ -6149,233 +6631,233 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
         <v>74</v>
       </c>
-      <c r="D64" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
         <v>37</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E70" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B80" t="s">
         <v>57</v>
@@ -6384,10 +6866,10 @@
         <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6395,10 +6877,10 @@
         <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
         <v>39</v>
@@ -6412,10 +6894,10 @@
         <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
         <v>39</v>
@@ -6429,10 +6911,10 @@
         <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D83" t="s">
         <v>39</v>
@@ -6446,10 +6928,10 @@
         <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
         <v>39</v>
@@ -6463,10 +6945,10 @@
         <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
         <v>39</v>
@@ -6480,287 +6962,287 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D86" t="s">
         <v>39</v>
       </c>
       <c r="E86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>32</v>
+      </c>
+      <c r="B89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="B90" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="E90" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D93" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>48</v>
-      </c>
-      <c r="B95" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" t="s">
-        <v>72</v>
-      </c>
-      <c r="D95" t="s">
-        <v>37</v>
-      </c>
-      <c r="E95" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" t="s">
-        <v>41</v>
-      </c>
-      <c r="C96" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>51</v>
-      </c>
-      <c r="B97" t="s">
-        <v>43</v>
-      </c>
-      <c r="C97" t="s">
-        <v>44</v>
-      </c>
-      <c r="D97" t="s">
-        <v>39</v>
-      </c>
-      <c r="E97" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D102" t="s">
         <v>37</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C103" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C104" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
         <v>39</v>
@@ -6771,13 +7253,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D106" t="s">
         <v>39</v>
@@ -6788,13 +7270,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
@@ -6805,18 +7287,188 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D110" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" t="s">
+        <v>72</v>
+      </c>
+      <c r="C114" t="s">
+        <v>73</v>
+      </c>
+      <c r="D114" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" t="s">
+        <v>75</v>
+      </c>
+      <c r="D115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" t="s">
+        <v>83</v>
+      </c>
+      <c r="D117" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" t="s">
         <v>39</v>
       </c>
     </row>
